--- a/Product.xlsx
+++ b/Product.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cyan\Documents\UiPath\Newfolder\AIPriceComparisonApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11B6122-3872-49DB-97B5-288DA8B1E841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDC9E1D-942C-4300-9A9F-C46E660821EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="2685" yWindow="2685" windowWidth="20910" windowHeight="11835" firstSheet="0" activeTab="4" xr2:uid="{8CF7EE9A-9332-4A97-8EF0-B53A6973CF35}"/>
+    <x:workbookView xWindow="2340" yWindow="2340" windowWidth="20910" windowHeight="11835" firstSheet="0" activeTab="4" xr2:uid="{8CF7EE9A-9332-4A97-8EF0-B53A6973CF35}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="SearchResults_SH" sheetId="4" r:id="rId1"/>
     <x:sheet name="SearchResults_FP" sheetId="5" r:id="rId2"/>
     <x:sheet name="ShoppingList" sheetId="3" r:id="rId3"/>
-    <x:sheet name="SS_Bruce" sheetId="13" r:id="rId4"/>
+    <x:sheet name="SS_Alice" sheetId="12" r:id="rId4"/>
     <x:sheet name="SS_Wayne" sheetId="14" r:id="rId5"/>
-    <x:sheet name="SS_George" sheetId="15" r:id="rId6"/>
-    <x:sheet name="SS_Alice" sheetId="12" r:id="rId7"/>
+    <x:sheet name="SS_Bruce" sheetId="13" r:id="rId6"/>
+    <x:sheet name="SS_George" sheetId="15" r:id="rId7"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="191028"/>
@@ -284,6 +284,30 @@
     <x:t>Service Fees</x:t>
   </x:si>
   <x:si>
+    <x:t>African Blueberry (Jumbo)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>200 g</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://shengsiong.com.sg/product/african-blueberry-jumbo-200-g</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30.069999999999997</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Triko Konnyaku Fiber Jelly Grape</x:t>
+  </x:si>
+  <x:si>
+    <x:t>316 g</x:t>
+  </x:si>
+  <x:si>
+    <x:t>500 g</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://shengsiong.com.sg/product/le-bao-frozen-steamboat-pork-belly-slices-500-g</x:t>
+  </x:si>
+  <x:si>
     <x:t>Marigold HL Plant Sterols Dark Chocolate Milk</x:t>
   </x:si>
   <x:si>
@@ -293,7 +317,7 @@
     <x:t>https://shengsiong.com.sg/product/marigold-hl-plant-sterols-dark-chocolate-milk-946-ml</x:t>
   </x:si>
   <x:si>
-    <x:t>25.06</x:t>
+    <x:t>25.68</x:t>
   </x:si>
   <x:si>
     <x:t>170 g</x:t>
@@ -303,30 +327,6 @@
   </x:si>
   <x:si>
     <x:t>750 g</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AfricanBlue Blueberry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>125 g</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://shengsiong.com.sg/product/africanblue-blueberry-125-g</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23.369999999999997</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Triko Konnyaku Fiber Jelly Grape</x:t>
-  </x:si>
-  <x:si>
-    <x:t>316 g</x:t>
-  </x:si>
-  <x:si>
-    <x:t>500 g</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://shengsiong.com.sg/product/le-bao-frozen-steamboat-pork-belly-slices-500-g</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -2166,6 +2166,255 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{5A7E4878-8E8C-4975-90E2-40628A66525E}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:I4"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0">
+      <x:selection activeCell="J9" sqref="J9 A1:J9"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:cols>
+    <x:col min="1" max="1" width="32.425781" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="34.570312" style="0" customWidth="1"/>
+    <x:col min="3" max="4" width="13.140625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="24.570312" style="0" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <x:c r="A1" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="B1" s="13" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="I1" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <x:c r="A2" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="B2" s="13" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="C2" s="95" t="n">
+        <x:v>9.95</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="n">
+        <x:v>9.95</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="n">
+        <x:v>1.99</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <x:c r="A3" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="B3" s="13" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C3" s="95" t="n">
+        <x:v>3.63</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="n">
+        <x:v>3.63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <x:c r="A4" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C4" s="95" t="n">
+        <x:v>8.5</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="n">
+        <x:v>8.5</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{94558B7C-481A-4F74-97A3-92C4D53864C2}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:I4"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="K14" sqref="K14 1:1048576 A1:K14"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:cols>
+    <x:col min="1" max="1" width="14.855469" style="0" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <x:c r="A1" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="B1" s="13" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="I1" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <x:c r="A2" s="90" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="B2" s="94" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="n">
+        <x:v>3.83</x:v>
+      </x:c>
+      <x:c r="D2" s="24" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E2" s="91" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="n">
+        <x:v>3.83</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H2" s="92" t="n">
+        <x:v>1.99</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <x:c r="A3" s="90" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B3" s="94" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="n">
+        <x:v>5.29</x:v>
+      </x:c>
+      <x:c r="D3" s="24" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E3" s="91" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="n">
+        <x:v>5.29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <x:c r="A4" s="90" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="B4" s="94" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="n">
+        <x:v>8.57</x:v>
+      </x:c>
+      <x:c r="D4" s="24" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E4" s="91" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="n">
+        <x:v>8.57</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{AE0E6601-136F-4F04-865B-79A025750108}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2207,130 +2456,7 @@
 </x:worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{94558B7C-481A-4F74-97A3-92C4D53864C2}" mc:Ignorable="x14ac xr xr2 xr3">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:I4"/>
-  <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="K14" sqref="K14 A1:K14"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <x:cols>
-    <x:col min="1" max="1" width="14.855469" style="0" customWidth="1"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <x:c r="A1" s="0" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="B1" s="13" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="C1" s="0" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="D1" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E1" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F1" s="0" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="G1" s="0" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="H1" s="0" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="I1" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A2" s="90" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="B2" s="94" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="n">
-        <x:v>3.83</x:v>
-      </x:c>
-      <x:c r="D2" s="24" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E2" s="91" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="F2" s="0" t="n">
-        <x:v>3.83</x:v>
-      </x:c>
-      <x:c r="G2" s="0" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H2" s="92" t="n">
-        <x:v>1.99</x:v>
-      </x:c>
-      <x:c r="I2" s="0" t="s">
-        <x:v>83</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A3" s="90" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="B3" s="94" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="n">
-        <x:v>5.29</x:v>
-      </x:c>
-      <x:c r="D3" s="24" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E3" s="91" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="n">
-        <x:v>5.29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A4" s="90" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="B4" s="94" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="n">
-        <x:v>7.95</x:v>
-      </x:c>
-      <x:c r="D4" s="24" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E4" s="91" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F4" s="0" t="n">
-        <x:v>7.95</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{4B298985-0C69-4186-88D4-46AE5DA72252}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2371,132 +2497,6 @@
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{5A7E4878-8E8C-4975-90E2-40628A66525E}" mc:Ignorable="x14ac xr xr2 xr3">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:I4"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0">
-      <x:selection activeCell="L11" sqref="L11 A1:L11"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <x:cols>
-    <x:col min="1" max="1" width="32.425781" style="0" bestFit="1" customWidth="1"/>
-    <x:col min="2" max="2" width="34.570312" style="0" customWidth="1"/>
-    <x:col min="3" max="4" width="13.140625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="24.570312" style="0" customWidth="1"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <x:c r="A1" s="0" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="B1" s="13" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="C1" s="0" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="D1" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E1" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F1" s="0" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="G1" s="0" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="H1" s="0" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="I1" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <x:c r="A2" s="0" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="B2" s="13" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="C2" s="95" t="n">
-        <x:v>3.25</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="F2" s="0" t="n">
-        <x:v>3.25</x:v>
-      </x:c>
-      <x:c r="G2" s="0" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H2" s="0" t="n">
-        <x:v>1.99</x:v>
-      </x:c>
-      <x:c r="I2" s="0" t="s">
-        <x:v>90</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <x:c r="A3" s="0" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="B3" s="13" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="C3" s="95" t="n">
-        <x:v>3.63</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="n">
-        <x:v>3.63</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <x:c r="A4" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="C4" s="95" t="n">
-        <x:v>8.5</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="F4" s="0" t="n">
-        <x:v>8.5</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="0"/>

--- a/Product.xlsx
+++ b/Product.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cyan\Documents\UiPath\Newfolder\AIPriceComparisonApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDC9E1D-942C-4300-9A9F-C46E660821EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C772E72-7378-456C-9B83-BF881ED07F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="2340" yWindow="2340" windowWidth="20910" windowHeight="11835" firstSheet="0" activeTab="4" xr2:uid="{8CF7EE9A-9332-4A97-8EF0-B53A6973CF35}"/>
+    <x:workbookView xWindow="4455" yWindow="2025" windowWidth="20910" windowHeight="11835" firstSheet="0" activeTab="4" xr2:uid="{8CF7EE9A-9332-4A97-8EF0-B53A6973CF35}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="SearchResults_SH" sheetId="4" r:id="rId1"/>
@@ -2173,7 +2173,7 @@
   <x:dimension ref="A1:I4"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
-      <x:selection activeCell="J9" sqref="J9 A1:J9"/>
+      <x:selection activeCell="K8" sqref="K8 A1:K8"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2184,7 +2184,7 @@
     <x:col min="5" max="5" width="24.570312" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <x:row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="A1" s="0" t="s">
         <x:v>75</x:v>
       </x:c>
@@ -2213,7 +2213,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <x:row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="A2" s="0" t="s">
         <x:v>80</x:v>
       </x:c>
@@ -2242,7 +2242,7 @@
         <x:v>83</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <x:row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="A3" s="0" t="s">
         <x:v>84</x:v>
       </x:c>
@@ -2262,7 +2262,7 @@
         <x:v>3.63</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <x:row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="A4" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
@@ -2299,7 +2299,7 @@
   <x:dimension ref="A1:I4"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="K14" sqref="K14 1:1048576 A1:K14"/>
+      <x:selection activeCell="L12" sqref="L12 A1:L12"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2307,7 +2307,7 @@
     <x:col min="1" max="1" width="14.855469" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <x:row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A1" s="0" t="s">
         <x:v>75</x:v>
       </x:c>
@@ -2336,7 +2336,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <x:row r="2" spans="1:12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A2" s="90" t="s">
         <x:v>88</x:v>
       </x:c>
@@ -2365,7 +2365,7 @@
         <x:v>91</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <x:row r="3" spans="1:12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A3" s="90" t="s">
         <x:v>22</x:v>
       </x:c>
@@ -2385,7 +2385,7 @@
         <x:v>5.29</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <x:row r="4" spans="1:12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A4" s="90" t="s">
         <x:v>93</x:v>
       </x:c>
@@ -2504,9 +2504,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2642,26 +2645,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8272A609-9B25-40FA-8843-0F3DA9C8303D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFDAB1F7-646E-4BB9-A238-55D42E5DB521}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="40141d4e-3b38-4710-8795-3204fb4b3658"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2685,9 +2677,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFDAB1F7-646E-4BB9-A238-55D42E5DB521}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8272A609-9B25-40FA-8843-0F3DA9C8303D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="40141d4e-3b38-4710-8795-3204fb4b3658"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Product.xlsx
+++ b/Product.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cyan\Documents\UiPath\Newfolder\AIPriceComparisonApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C772E72-7378-456C-9B83-BF881ED07F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA84535-D505-42D8-9FC4-7BB9EEF774E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="4455" yWindow="2025" windowWidth="20910" windowHeight="11835" firstSheet="0" activeTab="4" xr2:uid="{8CF7EE9A-9332-4A97-8EF0-B53A6973CF35}"/>
   </x:bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <x:si>
     <x:t xml:space="preserve"> Product Name</x:t>
   </x:si>
@@ -317,7 +317,7 @@
     <x:t>https://shengsiong.com.sg/product/marigold-hl-plant-sterols-dark-chocolate-milk-946-ml</x:t>
   </x:si>
   <x:si>
-    <x:t>25.68</x:t>
+    <x:t>23.31</x:t>
   </x:si>
   <x:si>
     <x:t>170 g</x:t>
@@ -326,7 +326,10 @@
     <x:t>Milo Gao Kosong</x:t>
   </x:si>
   <x:si>
-    <x:t>750 g</x:t>
+    <x:t>450 g</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://shengsiong.com.sg/product/milo-gao-kosong-450-g</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -2393,16 +2396,16 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="C4" s="0" t="n">
-        <x:v>8.57</x:v>
+        <x:v>6.2</x:v>
       </x:c>
       <x:c r="D4" s="24" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E4" s="91" t="s">
-        <x:v>25</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>8.57</x:v>
+        <x:v>6.2</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
